--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3932f4acff490c19/General/Blogs/Curriculum-Vitae/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3932f4acff490c19/General/Curriculum-Vitae/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="65" documentId="11_0D43DB9B034B1B2586640D4A26A605C4A0318739" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19B6F039-8C52-4FE0-9913-80E75AA10A01}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="851" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="851" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="18" r:id="rId1"/>
@@ -1234,7 +1234,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1347,13 +1347,8 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1369,12 +1364,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1388,9 +1377,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1691,127 +1677,127 @@
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="69" customWidth="1"/>
-    <col min="2" max="2" width="68.28515625" style="70" customWidth="1"/>
-    <col min="3" max="3" width="2.42578125" style="71" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" style="70" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="69"/>
+    <col min="1" max="1" width="22.7109375" style="64" customWidth="1"/>
+    <col min="2" max="2" width="68.28515625" style="65" customWidth="1"/>
+    <col min="3" max="3" width="2.42578125" style="65" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" style="65" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:4" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="60" t="s">
         <v>327</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="66" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="61" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="69" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="56" t="s">
         <v>202</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="68"/>
-    </row>
-    <row r="3" spans="1:4" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="C2" s="57"/>
+      <c r="D2" s="63"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="68" t="s">
+      <c r="C3" s="57"/>
+      <c r="D3" s="63" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="68"/>
-    </row>
-    <row r="5" spans="1:4" s="69" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+      <c r="C4" s="57"/>
+      <c r="D4" s="63"/>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="57" t="s">
         <v>323</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="68" t="s">
+      <c r="C5" s="57"/>
+      <c r="D5" s="63" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="69" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="57" t="s">
         <v>324</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="68" t="s">
+      <c r="C6" s="57"/>
+      <c r="D6" s="63" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="68"/>
-    </row>
-    <row r="8" spans="1:4" s="69" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="61" t="s">
+      <c r="C7" s="57"/>
+      <c r="D7" s="63"/>
+    </row>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="57" t="s">
         <v>222</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="68"/>
-    </row>
-    <row r="9" spans="1:4" s="69" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="61" t="s">
+      <c r="C8" s="57"/>
+      <c r="D8" s="63"/>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="68"/>
-    </row>
-    <row r="10" spans="1:4" s="69" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="61" t="s">
+      <c r="C9" s="57"/>
+      <c r="D9" s="63"/>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="57" t="s">
         <v>231</v>
       </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="68"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="63"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1828,7 +1814,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2062,7 +2048,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2210,7 +2196,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2362,218 +2348,218 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
+    <row r="5" spans="1:14" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="52" t="s">
         <v>238</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="52" t="s">
         <v>242</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="57">
+      <c r="D5" s="54">
         <v>2020</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="53" t="s">
         <v>298</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="53" t="s">
         <v>322</v>
       </c>
-      <c r="H5" s="56" t="s">
+      <c r="H5" s="53" t="s">
         <v>301</v>
       </c>
-      <c r="J5" s="56" t="s">
+      <c r="J5" s="53" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
+    <row r="6" spans="1:14" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="s">
         <v>239</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="52" t="s">
         <v>239</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="57">
+      <c r="D6" s="54">
         <v>2019</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="E6" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="F6" s="56" t="s">
+      <c r="F6" s="53" t="s">
         <v>298</v>
       </c>
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="53" t="s">
         <v>322</v>
       </c>
-      <c r="H6" s="56" t="s">
+      <c r="H6" s="53" t="s">
         <v>301</v>
       </c>
-      <c r="J6" s="56" t="s">
+      <c r="J6" s="53" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="55" t="s">
+    <row r="7" spans="1:14" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="52" t="s">
         <v>243</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="52" t="s">
         <v>244</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="57">
+      <c r="D7" s="54">
         <v>2016</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="E7" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="F7" s="56" t="s">
+      <c r="F7" s="53" t="s">
         <v>298</v>
       </c>
-      <c r="G7" s="56" t="s">
+      <c r="G7" s="53" t="s">
         <v>322</v>
       </c>
-      <c r="H7" s="56" t="s">
+      <c r="H7" s="53" t="s">
         <v>301</v>
       </c>
-      <c r="J7" s="56" t="s">
+      <c r="J7" s="53" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
+    <row r="8" spans="1:14" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="52" t="s">
         <v>240</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="52" t="s">
         <v>240</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="57">
+      <c r="D8" s="54">
         <v>2014</v>
       </c>
-      <c r="E8" s="56" t="s">
+      <c r="E8" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="56" t="s">
+      <c r="F8" s="53" t="s">
         <v>298</v>
       </c>
-      <c r="G8" s="56" t="s">
+      <c r="G8" s="53" t="s">
         <v>322</v>
       </c>
-      <c r="H8" s="56" t="s">
+      <c r="H8" s="53" t="s">
         <v>301</v>
       </c>
-      <c r="I8" s="56" t="s">
+      <c r="I8" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="J8" s="56" t="s">
+      <c r="J8" s="53" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
+    <row r="9" spans="1:14" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="52" t="s">
         <v>241</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="52" t="s">
         <v>241</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="D9" s="57">
+      <c r="D9" s="54">
         <v>2015</v>
       </c>
-      <c r="E9" s="56" t="s">
+      <c r="E9" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="53" t="s">
         <v>298</v>
       </c>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="53" t="s">
         <v>322</v>
       </c>
-      <c r="H9" s="56" t="s">
+      <c r="H9" s="53" t="s">
         <v>301</v>
       </c>
-      <c r="I9" s="56" t="s">
+      <c r="I9" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="J9" s="56" t="s">
+      <c r="J9" s="53" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="55" t="s">
+    <row r="10" spans="1:14" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="52" t="s">
         <v>232</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="52" t="s">
         <v>232</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="57">
+      <c r="D10" s="54">
         <v>2016</v>
       </c>
-      <c r="E10" s="56" t="s">
+      <c r="E10" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="F10" s="56" t="s">
+      <c r="F10" s="53" t="s">
         <v>298</v>
       </c>
-      <c r="G10" s="56" t="s">
+      <c r="G10" s="53" t="s">
         <v>322</v>
       </c>
-      <c r="H10" s="56" t="s">
+      <c r="H10" s="53" t="s">
         <v>301</v>
       </c>
-      <c r="I10" s="56" t="s">
+      <c r="I10" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="J10" s="56" t="s">
+      <c r="J10" s="53" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55" t="s">
+    <row r="11" spans="1:14" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="52" t="s">
         <v>232</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="52" t="s">
         <v>232</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="54">
         <v>2016</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="53" t="s">
         <v>298</v>
       </c>
-      <c r="G11" s="56" t="s">
+      <c r="G11" s="53" t="s">
         <v>322</v>
       </c>
-      <c r="H11" s="56" t="s">
+      <c r="H11" s="53" t="s">
         <v>301</v>
       </c>
-      <c r="I11" s="56" t="s">
+      <c r="I11" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="J11" s="56" t="s">
+      <c r="J11" s="53" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2592,7 +2578,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3146,7 +3132,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3903,7 +3889,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3964,26 +3950,26 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
         <v>44969</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="50" t="s">
         <v>319</v>
       </c>
-      <c r="C3" s="52">
+      <c r="C3" s="14">
         <v>2023</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="51">
         <v>4.58</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="9" t="s">
         <v>317</v>
       </c>
     </row>
@@ -4003,7 +3989,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4146,9 +4132,9 @@
   </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4383,21 +4369,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010032CCB1BA9365C54B9C3EB9E23C1B2633" ma:contentTypeVersion="12" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="7f0fce0c4abc6a12f8fcbebd879d9aed">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9de6e283-f6b6-4558-8465-801ca1267013" xmlns:ns4="421202cc-cfcf-450e-a55d-9487af6c1599" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b1ff60bc3b9a940cff1e2fac717cc3e" ns3:_="" ns4:_="">
     <xsd:import namespace="9de6e283-f6b6-4558-8465-801ca1267013"/>
@@ -4614,10 +4585,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8B0CA3A-E88C-474E-AEE0-98F82CA8AFD9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85FDB8B3-8D01-4405-A22D-A8737F0F0A31}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9de6e283-f6b6-4558-8465-801ca1267013"/>
+    <ds:schemaRef ds:uri="421202cc-cfcf-450e-a55d-9487af6c1599"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4640,20 +4637,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85FDB8B3-8D01-4405-A22D-A8737F0F0A31}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8B0CA3A-E88C-474E-AEE0-98F82CA8AFD9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9de6e283-f6b6-4558-8465-801ca1267013"/>
-    <ds:schemaRef ds:uri="421202cc-cfcf-450e-a55d-9487af6c1599"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>